--- a/FLUXO DE CAIXA SETEMBRO 2019/28-09-2019_FluxoDeCaixa.xlsx
+++ b/FLUXO DE CAIXA SETEMBRO 2019/28-09-2019_FluxoDeCaixa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael_Campos\Documents\GitHub\ConnectFibra\FLUXO DE CAIXA SETEMBRO 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B46637B-31BC-441A-AFFB-513123649B61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1B2EE7-F829-435B-BCF7-E486CA1620B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9152A456-9720-4D0C-842A-50118CAD28D0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>FLUXO CAIXA DIÁRIO</t>
   </si>
@@ -78,37 +78,31 @@
     <t>Vale Deborah</t>
   </si>
   <si>
+    <t xml:space="preserve">   27/09/2019</t>
+  </si>
+  <si>
     <t>Vale Jenniffer</t>
   </si>
   <si>
     <t>Vale Jefferson</t>
   </si>
   <si>
-    <t xml:space="preserve">   28/09/2019</t>
-  </si>
-  <si>
-    <t>Gasolina Strada</t>
-  </si>
-  <si>
-    <t>Vale Luciano</t>
-  </si>
-  <si>
-    <t>Aluguel Mesas e Cadeiras</t>
-  </si>
-  <si>
-    <t>Bolo de Rolo da Inauguração</t>
-  </si>
-  <si>
-    <t>Pagamento Mateus</t>
-  </si>
-  <si>
-    <t>Salgados da Inauguração</t>
-  </si>
-  <si>
-    <t>Bolo da Inauguração</t>
-  </si>
-  <si>
-    <t>Lavagem Strada, Moto e Symbol</t>
+    <t>Gasolina da Moto</t>
+  </si>
+  <si>
+    <t>Soda do Carrinho</t>
+  </si>
+  <si>
+    <t>Sacolinha da Inauguração</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Água sanitária</t>
+  </si>
+  <si>
+    <t>Tomadas</t>
   </si>
 </sst>
 </file>
@@ -214,11 +208,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -540,7 +534,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,10 +545,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -565,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -583,20 +577,20 @@
         <v>3</v>
       </c>
       <c r="B6" s="12">
-        <v>997.5</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="12">
+        <v>20</v>
+      </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
-        <v>220</v>
-      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -610,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="7">
-        <v>248.22</v>
+        <v>282.91000000000003</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -619,8 +613,8 @@
         <v>6</v>
       </c>
       <c r="B10" s="10">
-        <f>SUM(B15:B34)</f>
-        <v>981</v>
+        <f>SUM(B15:B31)</f>
+        <v>212.5</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -634,7 +628,7 @@
       </c>
       <c r="B12" s="10">
         <f>(B6+B7)-B10</f>
-        <v>16.5</v>
+        <v>835.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,26 +645,26 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="11">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B17" s="11">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,15 +672,15 @@
         <v>19</v>
       </c>
       <c r="B18" s="11">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B19" s="11">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,126 +693,89 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" s="4">
-        <v>22</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>20</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>120</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4">
-        <v>20</v>
-      </c>
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4">
-        <v>32</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="4">
-        <v>40</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="4">
-        <v>95</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="4">
-        <v>100</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="4">
-        <v>20</v>
-      </c>
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="4">
-        <v>50</v>
-      </c>
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="9">
-        <v>102</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="14">
-        <v>40</v>
-      </c>
+      <c r="A34" s="3"/>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="3">
-        <v>60</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
